--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="651">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -51,6 +51,9 @@
     <t xml:space="preserve">choice_filter</t>
   </si>
   <si>
+    <t xml:space="preserve">repeat_count</t>
+  </si>
+  <si>
     <t xml:space="preserve">start</t>
   </si>
   <si>
@@ -367,6 +370,15 @@
   </si>
   <si>
     <t xml:space="preserve">female_above_50_available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_preg_woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${pregnant_woman_available}</t>
   </si>
   <si>
     <t xml:space="preserve">grp_pregnant_woman</t>
@@ -583,6 +595,15 @@
     <t xml:space="preserve">${fam_plan_know_dur_preg}=’yes’</t>
   </si>
   <si>
+    <t xml:space="preserve">end repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_breast_feed_mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${breast_feeding_within_42_available}</t>
+  </si>
+  <si>
     <t xml:space="preserve">grp_breast_feed_42_post</t>
   </si>
   <si>
@@ -601,6 +622,72 @@
     <t xml:space="preserve">When was the delivery date?</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one delivery_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one delivery_place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_of_delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where was the place of delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">place_of_delivery_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the place of delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_of_delivery}=’others’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery_hf_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask for a card for verification, Enter the name of the Health Facility/Hospital/Dispensary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${place_of_delivery}=’health_facility’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discharge_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the discharge date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_multiple puperium_danger_signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puperium_danger_signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before proceeding rule out the PUPERIUM danger signs to the mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nt_neonatal_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each babies, rule out danger signs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${delivery_type}&gt;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_neonatal_baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(${delivery_type})</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one outcome</t>
   </si>
   <si>
@@ -619,57 +706,6 @@
     <t xml:space="preserve">${delivery_outcome}=’dead’</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one delivery_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one delivery_place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_of_delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Where was the place of delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place_of_delivery_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tell the place of delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${place_of_delivery}=’others’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery_hf_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask for a card for verification, Enter the name of the Health Facility/Hospital/Dispensary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${place_of_delivery}=’health_facility’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discharge_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the discharge date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_multiple puperium_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">puperium_danger_signs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before proceeding rule out the PUPERIUM danger signs to the mother</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_multiple neonatal_danger_sign</t>
   </si>
   <si>
@@ -679,6 +715,34 @@
     <t xml:space="preserve">Rule out Neonatal/ children danger sign</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">delivery_outcome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}!=’dead’</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">baby_back_post_clin</t>
   </si>
   <si>
@@ -775,34 +839,38 @@
     <t xml:space="preserve">note_children_under_5</t>
   </si>
   <si>
-    <t xml:space="preserve">total_under_5_child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How many under-five children do you have?</t>
-  </si>
-  <si>
     <t xml:space="preserve">take_child_clinic</t>
   </si>
   <si>
     <t xml:space="preserve">Do you take your child for clinic?</t>
   </si>
   <si>
-    <t xml:space="preserve">${total_under_5_child}&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grp_add_all_children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add all children age</t>
-  </si>
-  <si>
     <t xml:space="preserve">note_add_all_children</t>
   </si>
   <si>
-    <t xml:space="preserve">begin repeat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child_repeat</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Add all children age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and other details</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_children_under_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${children_available}</t>
   </si>
   <si>
     <t xml:space="preserve">child_age</t>
@@ -856,9 +924,6 @@
     <t xml:space="preserve">${baby_imm}=’no’</t>
   </si>
   <si>
-    <t xml:space="preserve">end repeat</t>
-  </si>
-  <si>
     <t xml:space="preserve">grp_other_services</t>
   </si>
   <si>
@@ -874,6 +939,21 @@
     <t xml:space="preserve">Is there a sick person in the household</t>
   </si>
   <si>
+    <t xml:space="preserve">sick_person_total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many sick person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${sick_person}=’yes’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rp_sick_person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${sick_person_total}</t>
+  </si>
+  <si>
     <t xml:space="preserve">sick_person_age</t>
   </si>
   <si>
@@ -1225,16 +1305,10 @@
     <t xml:space="preserve">Single Tone</t>
   </si>
   <si>
-    <t xml:space="preserve">twins</t>
-  </si>
-  <si>
     <t xml:space="preserve">Twins</t>
   </si>
   <si>
-    <t xml:space="preserve">triplets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triplets (If not single tone then allow multiple info. for the child</t>
+    <t xml:space="preserve">Triplets</t>
   </si>
   <si>
     <t xml:space="preserve">delivery_place</t>
@@ -1949,10 +2023,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1986,6 +2061,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2037,7 +2117,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2062,7 +2142,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2083,10 +2171,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G115" activeCellId="0" sqref="G115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="104:104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2129,16 +2217,19 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2149,13 +2240,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2166,13 +2257,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2183,13 +2274,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2200,13 +2291,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2217,13 +2308,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2234,13 +2325,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2251,13 +2342,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2268,13 +2359,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2285,604 +2376,601 @@
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G59" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>119</v>
@@ -2890,64 +2978,64 @@
       <c r="C60" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I61" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,137 +3048,137 @@
       <c r="C65" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="3" t="s">
         <v>157</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>162</v>
@@ -3098,182 +3186,176 @@
       <c r="C77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>23</v>
+      <c r="G77" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>122</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="1" t="s">
         <v>191</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>193</v>
@@ -3281,481 +3363,481 @@
       <c r="C92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>23</v>
+      <c r="G92" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>206</v>
+      <c r="F96" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>214</v>
+      <c r="G99" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>226</v>
+      <c r="F103" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G112" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C120" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>270</v>
+        <v>116</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>68</v>
+        <v>133</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>68</v>
+        <v>140</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>284</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>286</v>
@@ -3766,102 +3848,176 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>288</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>23</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G135" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="F141" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F140" s="1" t="s">
-        <v>23</v>
+      <c r="C142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3882,8 +4038,8 @@
   </sheetPr>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A184" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B216" activeCellId="0" sqref="B216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="1" sqref="104:104 A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3896,7 +4052,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3905,2558 +4061,2558 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>321</v>
+        <v>200</v>
+      </c>
+      <c r="B46" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>400</v>
+        <v>200</v>
+      </c>
+      <c r="B47" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>402</v>
+        <v>200</v>
+      </c>
+      <c r="B48" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -6478,7 +6634,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="I30" activeCellId="1" sqref="104:104 I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6488,19 +6644,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>637</v>
+      <c r="A1" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>639</v>
+      <c r="A2" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="650">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -430,9 +430,6 @@
   </si>
   <si>
     <t xml:space="preserve">When was your last menstrual period?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${visit_objective}!=’followup’</t>
   </si>
   <si>
     <t xml:space="preserve">select_multiple danger_signs</t>
@@ -715,32 +712,7 @@
     <t xml:space="preserve">Rule out Neonatal/ children danger sign</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">delivery_outcome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}!=’dead’</t>
-    </r>
+    <t xml:space="preserve">${delivery_outcome}!=’dead’</t>
   </si>
   <si>
     <t xml:space="preserve">baby_back_post_clin</t>
@@ -848,23 +820,7 @@
     <t xml:space="preserve">note_add_all_children</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Add all children age</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> and other details</t>
-    </r>
+    <t xml:space="preserve">Add all children age and other details</t>
   </si>
   <si>
     <t xml:space="preserve">rp_children_under_5</t>
@@ -2027,7 +1983,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2061,11 +2017,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2117,7 +2068,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2142,15 +2093,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2173,8 +2120,8 @@
   </sheetPr>
   <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="104:104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2964,7 +2911,7 @@
       <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J59" s="6" t="s">
+      <c r="J59" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3020,6 +2967,9 @@
       <c r="C63" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="E63" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>130</v>
       </c>
@@ -3034,6 +2984,9 @@
       <c r="C64" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E64" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>130</v>
       </c>
@@ -3049,29 +3002,29 @@
         <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>24</v>
@@ -3082,13 +3035,13 @@
         <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,10 +3049,10 @@
         <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,10 +3060,10 @@
         <v>133</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,10 +3071,10 @@
         <v>133</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,10 +3082,10 @@
         <v>133</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,10 +3093,10 @@
         <v>133</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,24 +3109,24 @@
         <v>122</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="G75" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,24 +3134,24 @@
         <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>24</v>
@@ -3206,30 +3159,30 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>24</v>
@@ -3237,19 +3190,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3210,10 @@
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>64</v>
@@ -3271,10 +3224,10 @@
         <v>122</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,10 +3235,10 @@
         <v>122</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,10 +3246,10 @@
         <v>122</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,13 +3259,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>24</v>
@@ -3323,13 +3276,13 @@
         <v>37</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3292,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,10 +3300,10 @@
         <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J91" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,13 +3311,13 @@
         <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3325,10 @@
         <v>122</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,21 +3336,21 @@
         <v>133</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>24</v>
@@ -3405,13 +3358,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>24</v>
@@ -3422,13 +3375,13 @@
         <v>37</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,13 +3389,13 @@
         <v>37</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3450,24 +3403,24 @@
         <v>133</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,13 +3428,13 @@
         <v>122</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,21 +3442,21 @@
         <v>116</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>24</v>
@@ -3511,49 +3464,49 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>24</v>
@@ -3561,33 +3514,33 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,13 +3548,13 @@
         <v>37</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,24 +3562,24 @@
         <v>122</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="G111" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,24 +3587,24 @@
         <v>37</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,10 +3612,10 @@
         <v>122</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,10 +3623,10 @@
         <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3683,7 +3636,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,13 +3644,13 @@
         <v>61</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,21 +3658,21 @@
         <v>122</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>24</v>
@@ -3730,10 +3683,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,10 +3694,10 @@
         <v>116</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J123" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3752,21 +3705,21 @@
         <v>55</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,24 +3727,24 @@
         <v>133</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>24</v>
@@ -3799,16 +3752,16 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,18 +3769,18 @@
         <v>122</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,10 +3793,10 @@
         <v>61</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,21 +3804,21 @@
         <v>122</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,13 +3826,13 @@
         <v>55</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,10 +3840,10 @@
         <v>116</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J136" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3898,21 +3851,21 @@
         <v>55</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,29 +3873,29 @@
         <v>37</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>24</v>
@@ -3950,13 +3903,13 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>24</v>
@@ -3967,24 +3920,24 @@
         <v>37</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,13 +3945,13 @@
         <v>37</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,13 +3961,13 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>24</v>
@@ -4038,8 +3991,8 @@
   </sheetPr>
   <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="1" sqref="104:104 A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D216" activeCellId="0" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4052,7 +4005,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4061,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,10 +4022,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,10 +4033,10 @@
         <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,18 +4044,18 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -4110,10 +4063,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
@@ -4124,10 +4077,10 @@
         <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,10 +4088,10 @@
         <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,10 +4099,10 @@
         <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,2434 +4110,2434 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="7" t="n">
+        <v>199</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47" s="7" t="n">
+        <v>199</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="7" t="n">
+        <v>199</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>615</v>
-      </c>
       <c r="D189" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="D204" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="D205" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="C210" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6592,27 +6545,27 @@
         <v>34</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="D215" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="D216" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -6634,7 +6587,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="1" sqref="104:104 I30"/>
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6644,19 +6597,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -2121,7 +2121,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
+      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="652">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">Name of Community Health Assistants Miss/Sir:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take GPS of this house</t>
   </si>
   <si>
     <t xml:space="preserve">house_head</t>
@@ -2118,10 +2124,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B70" activeCellId="0" sqref="B70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>45</v>
@@ -2457,28 +2463,25 @@
       <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>50</v>
@@ -2486,76 +2489,82 @@
       <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>67</v>
@@ -2566,26 +2575,23 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>72</v>
@@ -2593,10 +2599,13 @@
       <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>74</v>
@@ -2607,7 +2616,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>76</v>
@@ -2618,7 +2627,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>78</v>
@@ -2629,7 +2638,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>80</v>
@@ -2640,7 +2649,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>82</v>
@@ -2651,7 +2660,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>84</v>
@@ -2662,7 +2671,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>86</v>
@@ -2673,7 +2682,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>88</v>
@@ -2684,7 +2693,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>90</v>
@@ -2695,7 +2704,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>92</v>
@@ -2706,7 +2715,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>94</v>
@@ -2717,7 +2726,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -2728,48 +2737,48 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>103</v>
@@ -2780,21 +2789,21 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>79</v>
@@ -2802,10 +2811,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>81</v>
@@ -2813,10 +2822,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>83</v>
@@ -2824,10 +2833,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>85</v>
@@ -2835,10 +2844,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>87</v>
@@ -2846,10 +2855,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>89</v>
@@ -2857,10 +2866,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>91</v>
@@ -2868,10 +2877,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>93</v>
@@ -2879,10 +2888,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>95</v>
@@ -2890,10 +2899,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>97</v>
@@ -2901,138 +2910,135 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>135</v>
+      <c r="E65" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>138</v>
+      <c r="G66" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>142</v>
@@ -3040,35 +3046,38 @@
       <c r="C68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="G69" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>149</v>
@@ -3079,7 +3088,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>151</v>
@@ -3090,7 +3099,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>153</v>
@@ -3101,37 +3110,37 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>135</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>161</v>
@@ -3139,27 +3148,24 @@
       <c r="C77" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>167</v>
@@ -3170,58 +3176,58 @@
       <c r="F79" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="F82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>178</v>
@@ -3229,10 +3235,13 @@
       <c r="C83" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="F83" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>180</v>
@@ -3243,7 +3252,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>182</v>
@@ -3254,26 +3263,23 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>186</v>
@@ -3281,90 +3287,90 @@
       <c r="C88" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>188</v>
+      <c r="F88" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J91" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>193</v>
+      <c r="G93" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>24</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>204</v>
@@ -3380,8 +3386,8 @@
       <c r="C97" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>206</v>
+      <c r="F97" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,43 +3395,46 @@
         <v>37</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>214</v>
+      <c r="G100" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>215</v>
@@ -3433,38 +3442,35 @@
       <c r="C101" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="J103" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>223</v>
@@ -3475,46 +3481,46 @@
       <c r="F104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="F105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>232</v>
@@ -3525,66 +3531,69 @@
       <c r="F108" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="F109" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="G111" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G111" s="1" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+      <c r="C112" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>248</v>
@@ -3592,24 +3601,24 @@
       <c r="C113" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>254</v>
@@ -3620,7 +3629,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>256</v>
@@ -3631,56 +3640,53 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>259</v>
+      <c r="G120" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>264</v>
@@ -3688,43 +3694,46 @@
       <c r="C122" s="1" t="s">
         <v>265</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="J124" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>273</v>
@@ -3732,98 +3741,98 @@
       <c r="C126" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="G127" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>281</v>
+      <c r="F128" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>122</v>
+        <v>280</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>189</v>
+        <v>124</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>290</v>
@@ -3831,46 +3840,46 @@
       <c r="C135" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>37</v>
+        <v>299</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>300</v>
@@ -3878,38 +3887,35 @@
       <c r="C139" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>189</v>
+        <v>37</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>24</v>
@@ -3917,7 +3923,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>308</v>
@@ -3925,24 +3931,27 @@
       <c r="C143" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>310</v>
+      <c r="F143" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>37</v>
+        <v>313</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>314</v>
@@ -3950,26 +3959,37 @@
       <c r="C145" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>316</v>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C147" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="B148" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4005,7 +4025,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4014,2530 +4034,2530 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B47" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B48" s="6" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,27 +6565,27 @@
         <v>34</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="C216" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -6598,18 +6618,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="759">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -30,7 +30,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">label</t>
+    <t xml:space="preserve">label::Kiswahili (sw)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label::English (en)</t>
   </si>
   <si>
     <t xml:space="preserve">hint</t>
@@ -90,6 +93,9 @@
     <t xml:space="preserve">region</t>
   </si>
   <si>
+    <t xml:space="preserve">Chagua Mkoa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select Region</t>
   </si>
   <si>
@@ -105,6 +111,9 @@
     <t xml:space="preserve">district</t>
   </si>
   <si>
+    <t xml:space="preserve">Chagua Wilaya</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select District</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t xml:space="preserve">village</t>
   </si>
   <si>
+    <t xml:space="preserve">Chagua Kijiji</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select Village</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
     <t xml:space="preserve">house_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Chagua Nyumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select House</t>
   </si>
   <si>
@@ -141,6 +156,9 @@
     <t xml:space="preserve">house_name_new</t>
   </si>
   <si>
+    <t xml:space="preserve">Jina la nyumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">House Name</t>
   </si>
   <si>
@@ -150,24 +168,36 @@
     <t xml:space="preserve">house_number_new</t>
   </si>
   <si>
+    <t xml:space="preserve">Namba ya nyumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">House Number</t>
   </si>
   <si>
     <t xml:space="preserve">CHA_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Jina la muhudumu wa afya ngazi ya jamii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name of Community Health Assistants Miss/Sir:</t>
   </si>
   <si>
     <t xml:space="preserve">geopoint</t>
   </si>
   <si>
+    <t xml:space="preserve">Chukua GSP ya nyumba hii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Take GPS of this house</t>
   </si>
   <si>
     <t xml:space="preserve">house_head</t>
   </si>
   <si>
+    <t xml:space="preserve">Jina la mkuu wa kaya </t>
+  </si>
+  <si>
     <t xml:space="preserve">Name of the household head</t>
   </si>
   <si>
@@ -177,12 +207,18 @@
     <t xml:space="preserve">visit_objective</t>
   </si>
   <si>
+    <t xml:space="preserve">Lengo la ziara kwenye nyumba hii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Objective of the household visit</t>
   </si>
   <si>
     <t xml:space="preserve">respondent_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Jina la mhojiwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name of the respondent</t>
   </si>
   <si>
@@ -192,6 +228,9 @@
     <t xml:space="preserve">respondent_gender</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinsia ya mhojiwa </t>
+  </si>
+  <si>
     <t xml:space="preserve">Respondent gender</t>
   </si>
   <si>
@@ -201,6 +240,9 @@
     <t xml:space="preserve">respondent_age</t>
   </si>
   <si>
+    <t xml:space="preserve">Umri wa muhojiwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Respondent age</t>
   </si>
   <si>
@@ -210,6 +252,9 @@
     <t xml:space="preserve">marital_status</t>
   </si>
   <si>
+    <t xml:space="preserve">Hali ya uhusiano </t>
+  </si>
+  <si>
     <t xml:space="preserve">Relationship status</t>
   </si>
   <si>
@@ -219,6 +264,9 @@
     <t xml:space="preserve">grp_total_household_members_gender</t>
   </si>
   <si>
+    <t xml:space="preserve">Idadi ya wanakaya </t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of household members</t>
   </si>
   <si>
@@ -228,12 +276,18 @@
     <t xml:space="preserve">male_number_household</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanaume </t>
+  </si>
+  <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">female_number_household</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanawake </t>
+  </si>
+  <si>
     <t xml:space="preserve">Female</t>
   </si>
   <si>
@@ -243,90 +297,135 @@
     <t xml:space="preserve">grp_total_members_by_category_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaya ina wanakaya wangapi kati ya wafuatao</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many of below does the household has</t>
   </si>
   <si>
     <t xml:space="preserve">pregnant_woman_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wajawazito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregnant women</t>
   </si>
   <si>
     <t xml:space="preserve">breast_feeding_all</t>
   </si>
   <si>
+    <t xml:space="preserve">wanaonyonyesha </t>
+  </si>
+  <si>
     <t xml:space="preserve">Breast feeding mother</t>
   </si>
   <si>
     <t xml:space="preserve">neonates_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Watoto wenye chini ya siku 28 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Neonates (under 28 days of age)</t>
   </si>
   <si>
     <t xml:space="preserve">infants_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Watoto  wenye umri kati ya mwezi 1 na mwaka 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Infants (1 month to under 1 year of age)</t>
   </si>
   <si>
     <t xml:space="preserve">children_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Watoto wenye umri kati ya mwaka 1 na miaka 5 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Children (1 year to under 5 years)</t>
   </si>
   <si>
     <t xml:space="preserve">adolescents_girl_10_19_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wasichana wenyeumri kati ya mika 10 na 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adolescents girl 10 to 19 years</t>
   </si>
   <si>
     <t xml:space="preserve">adolescents_boy_10_19_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wavulana wenye umri kati ya mika 10 na 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adolescents boy 10 to 19 years</t>
   </si>
   <si>
     <t xml:space="preserve">female_youth_all</t>
   </si>
   <si>
+    <t xml:space="preserve">vijana  wa kike   miaka 20 mpaka  24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female youth 20 to 24 years</t>
   </si>
   <si>
     <t xml:space="preserve">male_youth_all</t>
   </si>
   <si>
+    <t xml:space="preserve">vijana  wa kiume   miaka 20 mpaka  24</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male youth 20 to 24 years</t>
   </si>
   <si>
     <t xml:space="preserve">Female_15_49_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanawake miaka kati ya 15 na 49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female 15 to 49 years</t>
   </si>
   <si>
     <t xml:space="preserve">Male_15_49_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanaume  miaka kati ya 15 na 49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male 15 to 49 years</t>
   </si>
   <si>
     <t xml:space="preserve">male_above_50_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanaume  zaidi ya miaka 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Male above 50+ added</t>
   </si>
   <si>
     <t xml:space="preserve">female_above_50_all</t>
   </si>
   <si>
+    <t xml:space="preserve">Wanawake zaidi ya miaka 50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Female above 50+ added</t>
   </si>
   <si>
     <t xml:space="preserve">grp_total_members_by_category_available</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaya ina wanakaya wangapi kati ya wafuatao wakati wa kutembelewa </t>
+  </si>
+  <si>
     <t xml:space="preserve">How many of below are at the household at the time of visit</t>
   </si>
   <si>
@@ -336,12 +435,18 @@
     <t xml:space="preserve">breast_feeding_within_42_available</t>
   </si>
   <si>
+    <t xml:space="preserve">wanaonyonyesha  ndani ya siku 42 baada ya kujifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Breastfeeding Mother within 42 days post-delivery</t>
   </si>
   <si>
     <t xml:space="preserve">breast_feeding_above_42_available</t>
   </si>
   <si>
+    <t xml:space="preserve">wanaonyonyesha  zaidi ya siku 42 baada ya kujifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Breastfeeding Mother above 42 days</t>
   </si>
   <si>
@@ -357,6 +462,9 @@
     <t xml:space="preserve">adolescents_girl_10_19_available</t>
   </si>
   <si>
+    <t xml:space="preserve">Wasichana wenye umri kati ya mika 10 na 19</t>
+  </si>
+  <si>
     <t xml:space="preserve">adolescents_boy_10_19_available</t>
   </si>
   <si>
@@ -390,6 +498,9 @@
     <t xml:space="preserve">grp_pregnant_woman</t>
   </si>
   <si>
+    <t xml:space="preserve">Mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pregnant Woman</t>
   </si>
   <si>
@@ -402,6 +513,9 @@
     <t xml:space="preserve">note_pregnant_woman</t>
   </si>
   <si>
+    <t xml:space="preserve">Uliza maswaliyafuatayo kwa mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ask following questions to a pregnant woman</t>
   </si>
   <si>
@@ -411,6 +525,9 @@
     <t xml:space="preserve">pregnant_woman_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Jina kamili la mama mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fullname of pregnant woman</t>
   </si>
   <si>
@@ -426,6 +543,9 @@
     <t xml:space="preserve">pregnant_woman_age_new</t>
   </si>
   <si>
+    <t xml:space="preserve">Umri wa mama mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age of a pregnant woman</t>
   </si>
   <si>
@@ -435,6 +555,9 @@
     <t xml:space="preserve">last_menstrual_period</t>
   </si>
   <si>
+    <t xml:space="preserve">Tarehe ya ya hedhi ya mwisho</t>
+  </si>
+  <si>
     <t xml:space="preserve">When was your last menstrual period?</t>
   </si>
   <si>
@@ -444,6 +567,9 @@
     <t xml:space="preserve">danger_signs</t>
   </si>
   <si>
+    <t xml:space="preserve">Chunguza dalli za hatari zifuatazo kwa mama mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select any danger signs below for this pregnant woman</t>
   </si>
   <si>
@@ -453,12 +579,18 @@
     <t xml:space="preserve">attended_anc_clinic</t>
   </si>
   <si>
+    <t xml:space="preserve">Umesgawahi kuhudguria klinic ya wajawazito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Have you ever attended the ANC clinic</t>
   </si>
   <si>
     <t xml:space="preserve">grp_request_anc_card</t>
   </si>
   <si>
+    <t xml:space="preserve">Omba kadi ya klinic ya mjamzito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Request ANC card</t>
   </si>
   <si>
@@ -468,34 +600,52 @@
     <t xml:space="preserve">note_request_anc_card</t>
   </si>
   <si>
+    <t xml:space="preserve">Ingiza tarehe alizohudhuria klinic ya wajawazito</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ask for the ANC card and enter the dates of the conducted visits.</t>
   </si>
   <si>
     <t xml:space="preserve">first_visit</t>
   </si>
   <si>
+    <t xml:space="preserve">Hudhurio  la kwanza</t>
+  </si>
+  <si>
     <t xml:space="preserve">First Visit</t>
   </si>
   <si>
     <t xml:space="preserve">second_visit</t>
   </si>
   <si>
+    <t xml:space="preserve">Hudhurio  la pili</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second Visit</t>
   </si>
   <si>
     <t xml:space="preserve">third_visit</t>
   </si>
   <si>
+    <t xml:space="preserve">Hudhurio  la tatu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third Visit</t>
   </si>
   <si>
     <t xml:space="preserve">forth_visit_above</t>
   </si>
   <si>
+    <t xml:space="preserve">Hudhurio  la ne</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fourth visit and above</t>
   </si>
   <si>
     <t xml:space="preserve">note_provide_health_education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toa elimu ya afya kuhusu kuudhuria klinic ta wajawazito na faida zake kwa mama na mtoto</t>
   </si>
   <si>
     <t xml:space="preserve">Provide Health Education on Clinic attendance and the potential benefits for
@@ -511,12 +661,18 @@
     <t xml:space="preserve">pregnant_woman_education</t>
   </si>
   <si>
+    <t xml:space="preserve">Mhamasishe mama mjamzito akiwa na mwenza/msaidizi  kuudhuria klinic kama alivyopangiwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encourage every pregnant woman in the presence of the husband or supporter to attend ANC visit as scheduled and provide education on;</t>
   </si>
   <si>
     <t xml:space="preserve">pregnant_woman_education_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu ya afya </t>
+  </si>
+  <si>
     <t xml:space="preserve">Add any other Education provided</t>
   </si>
   <si>
@@ -529,12 +685,18 @@
     <t xml:space="preserve">total_children</t>
   </si>
   <si>
+    <t xml:space="preserve">Una watoto wangapi</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many children do you have</t>
   </si>
   <si>
     <t xml:space="preserve">children_aged_under_one</t>
   </si>
   <si>
+    <t xml:space="preserve">Miongoni mwa watotot ulionano una mtoto  mwenye umri chini ya mwaka mmoja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is among of your children aged under 1 year?</t>
   </si>
   <si>
@@ -544,6 +706,9 @@
     <t xml:space="preserve">use_family_planning_method</t>
   </si>
   <si>
+    <t xml:space="preserve">Umeshawahi kutumia njia yoyote ya uzazi wa mpango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Have you ever used any of the family planning method?</t>
   </si>
   <si>
@@ -553,6 +718,9 @@
     <t xml:space="preserve">family_planning_methods</t>
   </si>
   <si>
+    <t xml:space="preserve">Tafadhali chagua njia ya uzazi wa mpango uliyokwishawahi kutumia/unayotumia sasa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Please select the family planning method that you have / you are currently using</t>
   </si>
   <si>
@@ -562,36 +730,54 @@
     <t xml:space="preserve">grp_family_plan_ed</t>
   </si>
   <si>
+    <t xml:space="preserve">Elimu ya uzazi wa mpango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family planning education</t>
   </si>
   <si>
     <t xml:space="preserve">note_family_plan_ed</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu ya uzazi wa mpango na umuhimu wake </t>
+  </si>
+  <si>
     <t xml:space="preserve">Provide Family planning education and the importance of child spacing</t>
   </si>
   <si>
     <t xml:space="preserve">note_fam_ed</t>
   </si>
   <si>
+    <t xml:space="preserve">Uzazi wa mpango</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family Planning</t>
   </si>
   <si>
     <t xml:space="preserve">note_health_ed</t>
   </si>
   <si>
+    <t xml:space="preserve">Elimu ya afya </t>
+  </si>
+  <si>
     <t xml:space="preserve">Health education</t>
   </si>
   <si>
     <t xml:space="preserve">fam_plan_know_dur_preg</t>
   </si>
   <si>
+    <t xml:space="preserve">Elimu ya </t>
+  </si>
+  <si>
     <t xml:space="preserve">Family Planning knowledge is also provided during pregnancy to prepare its utilization after delivery</t>
   </si>
   <si>
     <t xml:space="preserve">pref_fam_plan_method</t>
   </si>
   <si>
+    <t xml:space="preserve">Ingiza njia ya uzazi wa mpango iliyopendekezwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the preferred Family Planning Method:</t>
   </si>
   <si>
@@ -610,6 +796,9 @@
     <t xml:space="preserve">grp_breast_feed_42_post</t>
   </si>
   <si>
+    <t xml:space="preserve">mama anayenyonyesha ndani ya siku 42 baada ya kujifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Breast feeding mother within 42 days post delivery</t>
   </si>
   <si>
@@ -622,6 +811,9 @@
     <t xml:space="preserve">delivery_date</t>
   </si>
   <si>
+    <t xml:space="preserve">taja tarehe ya kujifungua?</t>
+  </si>
+  <si>
     <t xml:space="preserve">When was the delivery date?</t>
   </si>
   <si>
@@ -631,6 +823,9 @@
     <t xml:space="preserve">delivery_type</t>
   </si>
   <si>
+    <t xml:space="preserve">njia ya kujifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type of delivery</t>
   </si>
   <si>
@@ -640,12 +835,18 @@
     <t xml:space="preserve">place_of_delivery</t>
   </si>
   <si>
+    <t xml:space="preserve">Ni wapi ulipojifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Where was the place of delivery</t>
   </si>
   <si>
     <t xml:space="preserve">place_of_delivery_other</t>
   </si>
   <si>
+    <t xml:space="preserve">taja mahali ulipojifungulia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tell the place of delivery</t>
   </si>
   <si>
@@ -655,6 +856,9 @@
     <t xml:space="preserve">delivery_hf_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Ulizia kadi ya kliniki kwa ajili ya kuthibitisha,weka jina la kituo cha afya/hospitali/zahanati</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ask for a card for verification, Enter the name of the Health Facility/Hospital/Dispensary</t>
   </si>
   <si>
@@ -664,6 +868,9 @@
     <t xml:space="preserve">discharge_date</t>
   </si>
   <si>
+    <t xml:space="preserve">Taja tarehe ya kuruhusiwa kutoka katika kituo cha afya baad ya kujifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">What is the discharge date</t>
   </si>
   <si>
@@ -673,12 +880,18 @@
     <t xml:space="preserve">puperium_danger_signs</t>
   </si>
   <si>
+    <t xml:space="preserve">kabla ya kuendelea, chunguza kiashirika cha hali hatarishi kwa mama katika kipindi cha siku 40 baada ya kuzajifungua</t>
+  </si>
+  <si>
     <t xml:space="preserve">Before proceeding rule out the PUPERIUM danger signs to the mother</t>
   </si>
   <si>
     <t xml:space="preserve">nt_neonatal_baby</t>
   </si>
   <si>
+    <t xml:space="preserve">Kwa kila mtoto, chunguza kiashiria cha hatari </t>
+  </si>
+  <si>
     <t xml:space="preserve">For each babies, rule out danger signs</t>
   </si>
   <si>
@@ -697,12 +910,18 @@
     <t xml:space="preserve">delivery_outcome</t>
   </si>
   <si>
+    <t xml:space="preserve">Matokeo ya uzazi kwa mtoto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delivery Outcome for the baby</t>
   </si>
   <si>
     <t xml:space="preserve">cond_at_delivery</t>
   </si>
   <si>
+    <t xml:space="preserve">Hali ya mtoto wakati wa kujifungua.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Condition of the baby during delivery</t>
   </si>
   <si>
@@ -715,6 +934,9 @@
     <t xml:space="preserve">neonatal_danger_sign</t>
   </si>
   <si>
+    <t xml:space="preserve">chunguza viashiria vya hatari kwa mtoto mchanga/watoto </t>
+  </si>
+  <si>
     <t xml:space="preserve">Rule out Neonatal/ children danger sign</t>
   </si>
   <si>
@@ -724,12 +946,18 @@
     <t xml:space="preserve">baby_back_post_clin</t>
   </si>
   <si>
+    <t xml:space="preserve">Tangu ulipojifungua, Je umewahi kumpeleka mtoto kliniki kwa ajili ya huduma mara baada ya kujifungua?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Since delivery did you take your baby back to the postnatal clinic</t>
   </si>
   <si>
     <t xml:space="preserve">immunized</t>
   </si>
   <si>
+    <t xml:space="preserve">Je! Mtoto wako alishapatiwa chanjo?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Was your baby provided with immunization?</t>
   </si>
   <si>
@@ -742,6 +970,9 @@
     <t xml:space="preserve">imm_received</t>
   </si>
   <si>
+    <t xml:space="preserve">changua chanjo aliyopata</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select immunization received</t>
   </si>
   <si>
@@ -751,6 +982,9 @@
     <t xml:space="preserve">imm_received_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Ni chango gani nyngine zilizotolewa?</t>
+  </si>
+  <si>
     <t xml:space="preserve">What other immunizations was provided</t>
   </si>
   <si>
@@ -760,6 +994,9 @@
     <t xml:space="preserve">note_post_imm_ed</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu kwa wanawake juu ya umuhimu wa huduma mara baada ya kujifungua kwa mama na mtoto pamoja na umuhimu wa chanjo na kutoa rufaa kwenda katika kituo cha afya</t>
+  </si>
+  <si>
     <t xml:space="preserve">provide education to the woman on the importance of postnatal care for both mother and baby including the importance of immunization and refer to the heath facility.</t>
   </si>
   <si>
@@ -772,12 +1009,18 @@
     <t xml:space="preserve">health_education_post</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu ya afya kwa mama kama ifuatavyo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Provide health education to the woman on the following; (Not pregnant woman is woman)</t>
   </si>
   <si>
     <t xml:space="preserve">health_education_post_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Elimu nyingine ya Afya iliyotolewa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Any other health education provided</t>
   </si>
   <si>
@@ -790,24 +1033,36 @@
     <t xml:space="preserve">post_used_fam_plan_meth</t>
   </si>
   <si>
+    <t xml:space="preserve">Uliza kama mwanamke alishawahi kutumia njia yoyote ya uzazi wa mpango( Chagua njia sahihi)  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ask if a woman have ever used any means of Family planning (Select the appropriate)</t>
   </si>
   <si>
     <t xml:space="preserve">note_advice_fam_pla</t>
   </si>
   <si>
+    <t xml:space="preserve">Mshauri mama kuanza ama kuendelea kutumia njia ya uzazi wa mpango kwa kumpa elimu ya uzazi wa mpango </t>
+  </si>
+  <si>
     <t xml:space="preserve">Advise the woman to start or continue to use family planning by educating her on the safe family planning methods while breastfeeding</t>
   </si>
   <si>
     <t xml:space="preserve">note_record_acc_fam_plan_meth</t>
   </si>
   <si>
+    <t xml:space="preserve">Kama mama atakubali , jaza njia ya uzazi wa mpango aliyochangua, kama ni njia  ya kisasa, toa rufaa ya kuenda kwenye kituo cha kutolea huduma za afya.</t>
+  </si>
+  <si>
     <t xml:space="preserve">If the woman accepts record the selected means of family planning and if modern method then refer to the health facility</t>
   </si>
   <si>
     <t xml:space="preserve">grp_children_under_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Mtoto wa umri chini ya Miaka 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Children under 5 years old</t>
   </si>
   <si>
@@ -817,15 +1072,24 @@
     <t xml:space="preserve">note_children_under_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Mtoto wa umri chini ya Miaka 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">take_child_clinic</t>
   </si>
   <si>
+    <t xml:space="preserve">Je! Unampeleka mtoto clinic?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do you take your child for clinic?</t>
   </si>
   <si>
     <t xml:space="preserve">note_add_all_children</t>
   </si>
   <si>
+    <t xml:space="preserve">Jaza umri wa wototo wote na taarifa zao.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add all children age and other details</t>
   </si>
   <si>
@@ -838,6 +1102,9 @@
     <t xml:space="preserve">child_age</t>
   </si>
   <si>
+    <t xml:space="preserve">Umri wa mtoto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Child age</t>
   </si>
   <si>
@@ -847,12 +1114,18 @@
     <t xml:space="preserve">danger_signs_child</t>
   </si>
   <si>
+    <t xml:space="preserve">Changua ishara yoyote ya hatari kati ya zilizoorodheshwa katika listi ifuatayo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select any observed danger signs among the list below</t>
   </si>
   <si>
     <t xml:space="preserve">last_go_clinic</t>
   </si>
   <si>
+    <t xml:space="preserve">Ni lini mara ya mwisho umempeleka mtoto kliniki?</t>
+  </si>
+  <si>
     <t xml:space="preserve">When was the last time you took this child to Clinic</t>
   </si>
   <si>
@@ -862,6 +1135,9 @@
     <t xml:space="preserve">baby_imm</t>
   </si>
   <si>
+    <t xml:space="preserve">Je! Mtoto wako amewahi kupata chanjo?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Has your baby been provided with immunization</t>
   </si>
   <si>
@@ -871,6 +1147,9 @@
     <t xml:space="preserve">baby_rec_vacc</t>
   </si>
   <si>
+    <t xml:space="preserve">Changu chanjo zote alizowahi kupata(rejea kwenye kadi ya kliniki ya mtoto)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select all received among the Immunizations .(Refer to the clinic Card)</t>
   </si>
   <si>
@@ -880,6 +1159,9 @@
     <t xml:space="preserve">note_health_ed_child_care</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu ya afya juu ya huduma za watoto na umuhimu wa chanjo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Provide health education on child care and the importance of immunisation</t>
   </si>
   <si>
@@ -889,6 +1171,9 @@
     <t xml:space="preserve">grp_other_services</t>
   </si>
   <si>
+    <t xml:space="preserve">huduma nyingine zinazotolewa?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Other services provided</t>
   </si>
   <si>
@@ -898,12 +1183,18 @@
     <t xml:space="preserve">sick_person</t>
   </si>
   <si>
+    <t xml:space="preserve">Je! Kuna mgonjwa katika kaya?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Is there a sick person in the household</t>
   </si>
   <si>
     <t xml:space="preserve">sick_person_total</t>
   </si>
   <si>
+    <t xml:space="preserve">Kuna wagonjwa wangapi?</t>
+  </si>
+  <si>
     <t xml:space="preserve">How many sick person</t>
   </si>
   <si>
@@ -919,6 +1210,9 @@
     <t xml:space="preserve">sick_person_age</t>
   </si>
   <si>
+    <t xml:space="preserve">Je mgonjwa ana umri gani?</t>
+  </si>
+  <si>
     <t xml:space="preserve">How old is the sick person</t>
   </si>
   <si>
@@ -928,12 +1222,18 @@
     <t xml:space="preserve">general_examination</t>
   </si>
   <si>
+    <t xml:space="preserve">Fanya uchunguzi wa mwili kwa ujumla na chagua kutoka kwenye orodha  hali yoyote ya  tofauti  inayojionyesha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Conduct general body examination and select any observed conditions among the list below</t>
   </si>
   <si>
     <t xml:space="preserve">general_examination_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Je, ni uchunguzi gani mwengine wa mwili kwa ujumla uliofanyika?</t>
+  </si>
+  <si>
     <t xml:space="preserve">What other general body examination conducted</t>
   </si>
   <si>
@@ -943,6 +1243,9 @@
     <t xml:space="preserve">care_giver</t>
   </si>
   <si>
+    <t xml:space="preserve">Je,wewe ni mlezi au unatoa msaada wowote kwa  mgonjwa katika kaya?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are you a caregiver or do you provide a family support to any sick person at the Household?</t>
   </si>
   <si>
@@ -952,12 +1255,18 @@
     <t xml:space="preserve">living_companion</t>
   </si>
   <si>
+    <t xml:space="preserve">Unaishi na nani katika kaya?</t>
+  </si>
+  <si>
     <t xml:space="preserve">With whom are you living with at the household</t>
   </si>
   <si>
     <t xml:space="preserve">living_companion_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Ndugu wengine ni akina nani?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Who are the other siblings</t>
   </si>
   <si>
@@ -970,12 +1279,18 @@
     <t xml:space="preserve">health_edu_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Toa elimu ya Afya,chagua panapostahili</t>
+  </si>
+  <si>
     <t xml:space="preserve">Provide Health Education select where appropriate</t>
   </si>
   <si>
     <t xml:space="preserve">health_edu_others_others</t>
   </si>
   <si>
+    <t xml:space="preserve">Ni elimu gani nyingine   ya afya iliyotolewa?</t>
+  </si>
+  <si>
     <t xml:space="preserve">What other health education provided</t>
   </si>
   <si>
@@ -988,6 +1303,9 @@
     <t xml:space="preserve">interview_results</t>
   </si>
   <si>
+    <t xml:space="preserve">Matokeo ya mahojiano</t>
+  </si>
+  <si>
     <t xml:space="preserve">Results of the interview</t>
   </si>
   <si>
@@ -1867,9 +2185,6 @@
     <t xml:space="preserve">Kigoma District</t>
   </si>
   <si>
-    <t xml:space="preserve">Buhingwe District</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kishapu</t>
   </si>
   <si>
@@ -1975,10 +2290,16 @@
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
+    <t xml:space="preserve">default_language</t>
+  </si>
+  <si>
     <t xml:space="preserve">Household Visit</t>
   </si>
   <si>
     <t xml:space="preserve">household_visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2310,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -2014,6 +2335,12 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2074,12 +2401,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2091,7 +2422,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2103,7 +2434,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2124,1873 +2455,2234 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="1" sqref="210:212 C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="65.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>63</v>
+      <c r="A25" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>99</v>
+        <v>129</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>135</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>106</v>
+        <v>139</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>79</v>
+        <v>142</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>83</v>
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>147</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>91</v>
+        <v>149</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>93</v>
+        <v>150</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>95</v>
+        <v>151</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>152</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>155</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>126</v>
+        <v>162</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>130</v>
+        <v>166</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>132</v>
+        <v>170</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>132</v>
+        <v>172</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>24</v>
+        <v>184</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>148</v>
+        <v>191</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>150</v>
+        <v>194</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>154</v>
+        <v>200</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>156</v>
+        <v>203</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>159</v>
+        <v>206</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>162</v>
+        <v>211</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>165</v>
+        <v>214</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>24</v>
+        <v>219</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>171</v>
+        <v>26</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>24</v>
+        <v>226</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>24</v>
+        <v>230</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>177</v>
+        <v>26</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>66</v>
+        <v>234</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>181</v>
+        <v>237</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>183</v>
+        <v>240</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>243</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>24</v>
+        <v>246</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>190</v>
+        <v>249</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>193</v>
+        <v>254</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>196</v>
+        <v>256</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>195</v>
+        <v>260</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>199</v>
+        <v>261</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>24</v>
+        <v>265</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>24</v>
+        <v>269</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>208</v>
+        <v>272</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>211</v>
+        <v>276</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>211</v>
+        <v>280</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>216</v>
+        <v>284</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>219</v>
+        <v>287</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>221</v>
+        <v>291</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>24</v>
+        <v>294</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>24</v>
+        <v>297</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>227</v>
+        <v>26</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>24</v>
+        <v>306</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>24</v>
+        <v>309</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>236</v>
+        <v>26</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>240</v>
+        <v>314</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>318</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>246</v>
+        <v>322</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>249</v>
+        <v>327</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>252</v>
+        <v>330</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>255</v>
+        <v>335</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>257</v>
+        <v>338</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>259</v>
+        <v>341</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>262</v>
+        <v>344</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>261</v>
+        <v>348</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>24</v>
+        <v>350</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>267</v>
+        <v>353</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>269</v>
+        <v>356</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>271</v>
+        <v>358</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>274</v>
+        <v>362</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>277</v>
+        <v>365</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>24</v>
+        <v>369</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>283</v>
+        <v>373</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>286</v>
+        <v>377</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>288</v>
+        <v>381</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>288</v>
+        <v>384</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>291</v>
+        <v>385</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>294</v>
+        <v>388</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>296</v>
+        <v>392</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>298</v>
+        <v>394</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>397</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>301</v>
+        <v>398</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>304</v>
+        <v>401</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>24</v>
+        <v>405</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>307</v>
+        <v>408</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>24</v>
+        <v>409</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>312</v>
+        <v>412</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>315</v>
+        <v>417</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>318</v>
+        <v>420</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>424</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>24</v>
+        <v>425</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4009,2583 +4701,3217 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D216"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D216" activeCellId="0" sqref="D216"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A210" activeCellId="0" sqref="210:212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="74.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="74.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>323</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>430</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>325</v>
+        <v>431</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>432</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>327</v>
+        <v>433</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>434</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>329</v>
+        <v>435</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>331</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>438</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>439</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>334</v>
+        <v>440</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>335</v>
+        <v>441</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>336</v>
+        <v>442</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>338</v>
+        <v>444</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>339</v>
+        <v>445</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>340</v>
+        <v>446</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>341</v>
+        <v>447</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>342</v>
+        <v>448</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>343</v>
+        <v>449</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>344</v>
+        <v>450</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>346</v>
+        <v>452</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>348</v>
+        <v>454</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>350</v>
+        <v>456</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>351</v>
+        <v>457</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>352</v>
+        <v>458</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>353</v>
+        <v>459</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>354</v>
+        <v>460</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>356</v>
+        <v>462</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>464</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>360</v>
+        <v>466</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>362</v>
+        <v>468</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>364</v>
+        <v>470</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>366</v>
+        <v>472</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>367</v>
+        <v>473</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>365</v>
+        <v>471</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>368</v>
+        <v>474</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>369</v>
+        <v>475</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>370</v>
+        <v>476</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>371</v>
+        <v>477</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>373</v>
+        <v>479</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>374</v>
+        <v>480</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>375</v>
+        <v>481</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>377</v>
+        <v>483</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>380</v>
+        <v>486</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>381</v>
+        <v>487</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>382</v>
+        <v>488</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>383</v>
+        <v>489</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>385</v>
+        <v>491</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>386</v>
+        <v>492</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>387</v>
+        <v>493</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>388</v>
+        <v>494</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>389</v>
+        <v>495</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>390</v>
+        <v>496</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>391</v>
+        <v>497</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>392</v>
+        <v>498</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>393</v>
+        <v>499</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>394</v>
+        <v>500</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>395</v>
+        <v>501</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>397</v>
+        <v>503</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>399</v>
+        <v>505</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>401</v>
+        <v>506</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>403</v>
+        <v>509</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>405</v>
+        <v>511</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>407</v>
+        <v>513</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>410</v>
+        <v>516</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>408</v>
+        <v>514</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>411</v>
+        <v>517</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>412</v>
+        <v>518</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="B46" s="7" t="n">
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>413</v>
+        <v>519</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>414</v>
+        <v>520</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="6" t="n">
+        <v>265</v>
+      </c>
+      <c r="B48" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>415</v>
+        <v>521</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>418</v>
+        <v>524</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>419</v>
+        <v>525</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>420</v>
+        <v>526</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>422</v>
+        <v>528</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>424</v>
+        <v>530</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>426</v>
+        <v>532</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>428</v>
+        <v>534</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>430</v>
+        <v>536</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>431</v>
+        <v>537</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>433</v>
+        <v>539</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>435</v>
+        <v>541</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>437</v>
+        <v>543</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>438</v>
+        <v>544</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>439</v>
+        <v>545</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>440</v>
+        <v>546</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>441</v>
+        <v>547</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>443</v>
+        <v>549</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>445</v>
+        <v>551</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>447</v>
+        <v>553</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>449</v>
+        <v>555</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>451</v>
+        <v>557</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>453</v>
+        <v>559</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>454</v>
+        <v>560</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>455</v>
+        <v>561</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>456</v>
+        <v>562</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>457</v>
+        <v>563</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>428</v>
+        <v>534</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>458</v>
+        <v>564</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>459</v>
+        <v>565</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>460</v>
+        <v>566</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>461</v>
+        <v>567</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>426</v>
+        <v>532</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>426</v>
+        <v>532</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>462</v>
+        <v>568</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>462</v>
+        <v>568</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>463</v>
+        <v>569</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>466</v>
+        <v>572</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>467</v>
+        <v>573</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>468</v>
+        <v>574</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>469</v>
+        <v>575</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>470</v>
+        <v>576</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>472</v>
+        <v>578</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>464</v>
+        <v>570</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>474</v>
+        <v>580</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>475</v>
+        <v>581</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>477</v>
+        <v>583</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>478</v>
+        <v>584</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>479</v>
+        <v>585</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>480</v>
+        <v>586</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>481</v>
+        <v>587</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>482</v>
+        <v>588</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>483</v>
+        <v>589</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>484</v>
+        <v>590</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>462</v>
+        <v>568</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>485</v>
+        <v>591</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>486</v>
+        <v>592</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>487</v>
+        <v>593</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>425</v>
+        <v>531</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>426</v>
+        <v>532</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>488</v>
+        <v>594</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>466</v>
+        <v>572</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>489</v>
+        <v>595</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>467</v>
+        <v>573</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>468</v>
+        <v>574</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>490</v>
+        <v>596</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>469</v>
+        <v>575</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>470</v>
+        <v>576</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>491</v>
+        <v>597</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>471</v>
+        <v>577</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>492</v>
+        <v>598</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>493</v>
+        <v>599</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>494</v>
+        <v>600</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>495</v>
+        <v>601</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>496</v>
+        <v>602</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>497</v>
+        <v>603</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>498</v>
+        <v>604</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>499</v>
+        <v>605</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>500</v>
+        <v>606</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>501</v>
+        <v>607</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>502</v>
+        <v>608</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>503</v>
+        <v>609</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>504</v>
+        <v>610</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>506</v>
+        <v>612</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>507</v>
+        <v>613</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>508</v>
+        <v>614</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>509</v>
+        <v>615</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>510</v>
+        <v>616</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>511</v>
+        <v>617</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>512</v>
+        <v>618</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>513</v>
+        <v>619</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>514</v>
+        <v>620</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>515</v>
+        <v>621</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>516</v>
+        <v>622</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>517</v>
+        <v>623</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>518</v>
+        <v>624</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>519</v>
+        <v>625</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>520</v>
+        <v>626</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>521</v>
+        <v>627</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>522</v>
+        <v>628</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>524</v>
+        <v>630</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>308</v>
+        <v>409</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>525</v>
+        <v>631</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>526</v>
+        <v>632</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>527</v>
+        <v>633</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>528</v>
+        <v>634</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>529</v>
+        <v>635</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>531</v>
+        <v>637</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>532</v>
+        <v>638</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>534</v>
+        <v>640</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>536</v>
+        <v>642</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>538</v>
+        <v>644</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>539</v>
+        <v>645</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>540</v>
+        <v>646</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>541</v>
+        <v>647</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>542</v>
+        <v>648</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>544</v>
+        <v>650</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>545</v>
+        <v>651</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>546</v>
+        <v>652</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>547</v>
+        <v>653</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>548</v>
+        <v>654</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>550</v>
+        <v>656</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>378</v>
+        <v>484</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>379</v>
+        <v>485</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>552</v>
+        <v>658</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>553</v>
+        <v>659</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>554</v>
+        <v>660</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>555</v>
+        <v>661</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>556</v>
+        <v>662</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>557</v>
+        <v>663</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>558</v>
+        <v>664</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>559</v>
+        <v>665</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>560</v>
+        <v>666</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>561</v>
+        <v>667</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>561</v>
+        <v>667</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>562</v>
+        <v>668</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>563</v>
+        <v>669</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>563</v>
+        <v>669</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>564</v>
+        <v>670</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>564</v>
+        <v>670</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>565</v>
+        <v>671</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>565</v>
+        <v>671</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>566</v>
+        <v>672</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>566</v>
+        <v>672</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>567</v>
+        <v>673</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>567</v>
+        <v>673</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>568</v>
+        <v>674</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>569</v>
+        <v>675</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>570</v>
+        <v>676</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>570</v>
+        <v>676</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>571</v>
+        <v>677</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>571</v>
+        <v>677</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>572</v>
+        <v>678</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>572</v>
+        <v>678</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>573</v>
+        <v>679</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>573</v>
+        <v>679</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>574</v>
+        <v>680</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>574</v>
+        <v>680</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>575</v>
+        <v>681</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>576</v>
+        <v>682</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>576</v>
+        <v>682</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>577</v>
+        <v>683</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>577</v>
+        <v>683</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>552</v>
+        <v>685</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>580</v>
+        <v>686</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>580</v>
+        <v>686</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>552</v>
+        <v>686</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>552</v>
+        <v>687</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>582</v>
+        <v>688</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>582</v>
+        <v>688</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>553</v>
+        <v>688</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>553</v>
+        <v>689</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>584</v>
+        <v>690</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>584</v>
+        <v>690</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>554</v>
+        <v>690</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>585</v>
+        <v>691</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>585</v>
+        <v>691</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>554</v>
+        <v>691</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>555</v>
+        <v>692</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>555</v>
+        <v>693</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>588</v>
+        <v>694</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>588</v>
+        <v>694</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>555</v>
+        <v>694</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>589</v>
+        <v>695</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>589</v>
+        <v>695</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>556</v>
+        <v>695</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>556</v>
+        <v>696</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>556</v>
+        <v>697</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>592</v>
+        <v>698</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>592</v>
+        <v>698</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>557</v>
+        <v>698</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>593</v>
+        <v>699</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>593</v>
+        <v>699</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>558</v>
+        <v>699</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>594</v>
+        <v>700</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>594</v>
+        <v>700</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>558</v>
+        <v>700</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>595</v>
+        <v>701</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>595</v>
+        <v>701</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>558</v>
+        <v>701</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>596</v>
+        <v>702</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>596</v>
+        <v>702</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>558</v>
+        <v>702</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>597</v>
+        <v>703</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>597</v>
+        <v>703</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>558</v>
+        <v>703</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>598</v>
+        <v>704</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>598</v>
+        <v>704</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>559</v>
+        <v>704</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>599</v>
+        <v>705</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>599</v>
+        <v>705</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>560</v>
+        <v>705</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>600</v>
+        <v>706</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>600</v>
+        <v>706</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>560</v>
+        <v>706</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>601</v>
+        <v>707</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>601</v>
+        <v>707</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>561</v>
+        <v>707</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>602</v>
+        <v>708</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>602</v>
+        <v>708</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>561</v>
+        <v>708</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>562</v>
+        <v>709</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>604</v>
+        <v>710</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>604</v>
+        <v>710</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>563</v>
+        <v>710</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>563</v>
+        <v>711</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>563</v>
+        <v>712</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>564</v>
+        <v>713</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>565</v>
+        <v>714</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>565</v>
+        <v>715</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>565</v>
+        <v>716</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>566</v>
+        <v>717</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>567</v>
+        <v>718</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>613</v>
+        <v>719</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>613</v>
+        <v>719</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>567</v>
+        <v>719</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>614</v>
+        <v>720</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>614</v>
+        <v>721</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>615</v>
+        <v>722</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>616</v>
+        <v>722</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>568</v>
+        <v>722</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>568</v>
+        <v>723</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>618</v>
+        <v>724</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>618</v>
+        <v>724</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>568</v>
+        <v>724</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>570</v>
+        <v>725</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>570</v>
+        <v>726</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>570</v>
+        <v>727</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>571</v>
+        <v>728</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>571</v>
+        <v>729</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>624</v>
+        <v>730</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>624</v>
+        <v>730</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>571</v>
+        <v>730</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>571</v>
+        <v>731</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>571</v>
+        <v>732</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>572</v>
+        <v>733</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>573</v>
+        <v>734</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>573</v>
+        <v>735</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>630</v>
+        <v>737</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>574</v>
+        <v>737</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>631</v>
+        <v>738</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>632</v>
+        <v>739</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>575</v>
+        <v>739</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>633</v>
+        <v>740</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>575</v>
+        <v>740</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>635</v>
+        <v>741</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>576</v>
+        <v>742</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>576</v>
+        <v>743</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>578</v>
+        <v>744</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>638</v>
+        <v>745</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>638</v>
+        <v>745</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>577</v>
+        <v>745</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>615</v>
+        <v>746</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>615</v>
+        <v>747</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>615</v>
+        <v>748</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>639</v>
+        <v>744</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>617</v>
+        <v>749</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>639</v>
+        <v>38</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>644</v>
+        <v>751</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>617</v>
+        <v>751</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>34</v>
+        <v>752</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>645</v>
+        <v>750</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>646</v>
+        <v>751</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>645</v>
+        <v>751</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -6604,32 +7930,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="210:212 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>649</v>
+      <c r="A1" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>651</v>
+      <c r="A2" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="660">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">house_name_new</t>
   </si>
   <si>
-    <t xml:space="preserve">House Name</t>
+    <t xml:space="preserve">House owner Name</t>
   </si>
   <si>
     <t xml:space="preserve">${house_name}=’add_new’</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">house_number_new</t>
   </si>
   <si>
-    <t xml:space="preserve">House Number</t>
+    <t xml:space="preserve">Household Number</t>
   </si>
   <si>
     <t xml:space="preserve">CHA_name</t>
@@ -189,6 +189,15 @@
     <t xml:space="preserve">Take GPS of this house</t>
   </si>
   <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agree_interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you agree to be interviewed?</t>
+  </si>
+  <si>
     <t xml:space="preserve">house_head</t>
   </si>
   <si>
@@ -312,7 +321,7 @@
     <t xml:space="preserve">children_female_all</t>
   </si>
   <si>
-    <t xml:space="preserve">Femaile children (1 year to under 5 years)</t>
+    <t xml:space="preserve">Female children (1 year to under 5 years)</t>
   </si>
   <si>
     <t xml:space="preserve">children_boy_5_9_all</t>
@@ -426,9 +435,6 @@
     <t xml:space="preserve">children_female_available</t>
   </si>
   <si>
-    <t xml:space="preserve">Female children (1 year to under 5 years)</t>
-  </si>
-  <si>
     <t xml:space="preserve">children_boy_5_9_available</t>
   </si>
   <si>
@@ -523,9 +529,6 @@
   </si>
   <si>
     <t xml:space="preserve">When was your last menstrual period?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
   </si>
   <si>
     <t xml:space="preserve">attended_anc_clinic</t>
@@ -850,7 +853,7 @@
     <t xml:space="preserve">health_education_post</t>
   </si>
   <si>
-    <t xml:space="preserve">Provide health education to the woman on the following; (Not pregnant woman is woman)</t>
+    <t xml:space="preserve">Provide health education to the woman on the following;</t>
   </si>
   <si>
     <t xml:space="preserve">health_education_post_others</t>
@@ -1018,12 +1021,6 @@
     <t xml:space="preserve">${general_examination}=’others’</t>
   </si>
   <si>
-    <t xml:space="preserve">care_giver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you a caregiver or do you provide a family support to any sick person at the Household?</t>
-  </si>
-  <si>
     <t xml:space="preserve">select_one living_companion</t>
   </si>
   <si>
@@ -1078,7 +1075,7 @@
     <t xml:space="preserve">danger_signs_emergency</t>
   </si>
   <si>
-    <t xml:space="preserve">Cases for danger sings</t>
+    <t xml:space="preserve">Cases for danger signs</t>
   </si>
   <si>
     <t xml:space="preserve">danger_signs_emergency_others</t>
@@ -2065,12 +2062,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2107,7 +2110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2132,6 +2135,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2153,6 +2160,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2163,8 +2230,8 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2559,31 +2626,33 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>60</v>
@@ -2592,9 +2661,6 @@
         <v>61</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -2606,6 +2672,10 @@
       <c r="C24" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -2617,9 +2687,6 @@
       <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -2628,27 +2695,27 @@
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>68</v>
+      <c r="A27" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>74</v>
@@ -2656,816 +2723,819 @@
       <c r="C28" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="C60" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>94</v>
+    </row>
+    <row r="61" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H78" s="1" t="s">
+      <c r="G78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>163</v>
+      <c r="F80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>25</v>
+      <c r="H82" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="G83" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="H84" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="H90" s="1" t="s">
+      <c r="C91" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+      <c r="D91" s="3"/>
+      <c r="H91" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H95" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>207</v>
+      <c r="G98" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,10 +3543,10 @@
         <v>41</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,136 +3554,133 @@
         <v>41</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>216</v>
+      <c r="G103" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B106" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>25</v>
@@ -3621,16 +3688,16 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>237</v>
+      <c r="G113" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,223 +3705,226 @@
         <v>45</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="H116" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>217</v>
+        <v>255</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+      <c r="H126" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B127" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D126" s="3"/>
-      <c r="H126" s="1" t="s">
+      <c r="C127" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="D127" s="3"/>
+      <c r="H127" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,45 +3932,45 @@
         <v>41</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>217</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,244 +3981,241 @@
         <v>290</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K138" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>300</v>
+      <c r="G140" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>309</v>
+      <c r="G143" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>217</v>
+        <v>41</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K152" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>217</v>
+        <v>45</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>25</v>
@@ -4159,24 +4226,24 @@
         <v>45</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,48 +4251,48 @@
         <v>45</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,36 +4300,36 @@
         <v>45</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D165" s="6"/>
+      <c r="D165" s="7"/>
       <c r="F165" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C166" s="6"/>
-      <c r="D166" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>25</v>
@@ -4286,8 +4353,8 @@
   </sheetPr>
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4300,7 +4367,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4312,7 +4379,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,10 +4387,10 @@
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,10 +4398,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,1813 +4409,1813 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="B49" s="8" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="B50" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="B51" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>586</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>595</v>
-      </c>
       <c r="E130" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>637</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>639</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="E155" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>651</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6156,27 +6223,27 @@
         <v>38</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="E159" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -6210,25 +6277,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/backend/xlsForms/household_visit.xlsx
+++ b/backend/xlsForms/household_visit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -2009,9 +2009,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2110,7 +2109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2141,10 +2140,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2230,8 +2225,8 @@
   </sheetPr>
   <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C104" activeCellId="0" sqref="C104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C167" activeCellId="0" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4353,1896 +4348,1895 @@
   </sheetPr>
   <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="74.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="74.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="0" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="0" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="0" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="0" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="0" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="0" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="0" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="0" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="0" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="0" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="0" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="0" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="0" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="0" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="0" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="0" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="0" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="0" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="0" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="0" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="0" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="0" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="0" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="0" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="0" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B49" s="8" t="n">
+      <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="0" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B50" s="8" t="n">
+      <c r="B50" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="0" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="8" t="n">
+      <c r="B51" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="0" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="0" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="0" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="0" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="0" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="0" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="0" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="0" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="0" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="0" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="0" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="0" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="0" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="0" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="0" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="0" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="0" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="0" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="0" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="0" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="0" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="0" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="0" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="0" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="0" t="s">
         <v>505</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="0" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="0" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="0" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="0" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="0" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="0" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="0" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="0" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="0" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="0" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="0" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="0" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="0" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="0" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="0" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="0" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="0" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="0" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="0" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="0" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="0" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="0" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="0" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="0" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="0" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="0" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="0" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="0" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="0" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="0" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="0" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="0" t="s">
         <v>561</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="0" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="0" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="0" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="0" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="0" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="0" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="0" t="s">
         <v>573</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="0" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
         <v>575</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="0" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="0" t="s">
         <v>579</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="0" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="0" t="s">
         <v>615</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="0" t="s">
         <v>617</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="144" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="0" t="s">
         <v>621</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="0" t="s">
         <v>623</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="0" t="s">
         <v>627</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="0" t="s">
         <v>629</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="0" t="s">
         <v>635</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="E152" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="0" t="s">
         <v>639</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E153" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E154" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="s">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="E155" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="0" t="s">
         <v>647</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="0" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
         <v>653</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" s="0" t="s">
         <v>651</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="0" t="s">
         <v>651</v>
       </c>
     </row>
@@ -6265,7 +6259,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6277,10 +6271,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>655</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -6288,10 +6282,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>658</v>
       </c>
       <c r="C2" s="7" t="s">
